--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3191.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3191.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.213974043373117</v>
+        <v>1.003982067108154</v>
       </c>
       <c r="B1">
-        <v>2.336784845485223</v>
+        <v>1.897334814071655</v>
       </c>
       <c r="C1">
-        <v>7.625341328065709</v>
+        <v>2.846660137176514</v>
       </c>
       <c r="D1">
-        <v>2.920178616826069</v>
+        <v>3.491264820098877</v>
       </c>
       <c r="E1">
-        <v>1.399213963464335</v>
+        <v>2.02833104133606</v>
       </c>
     </row>
   </sheetData>
